--- a/SDLT Running Code/Taylor Bot/ProcessingExcel.xlsx
+++ b/SDLT Running Code/Taylor Bot/ProcessingExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>Insight Ref</x:t>
   </x:si>
@@ -106,217 +106,43 @@
     <x:t>Primary Purchaser NIN</x:t>
   </x:si>
   <x:si>
-    <x:t>NBT1800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Build Purchase</x:t>
+    <x:t>MRT1723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Purchase TL</x:t>
   </x:si>
   <x:si>
     <x:t>False</x:t>
   </x:si>
   <x:si>
-    <x:t>Parisa Baroudy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Schuurstraat 61 , Sint- Amandsberg   Belgium          9040</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 47 Ridgeway Views               </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£538,650.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 May 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 June 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winckworth Sherwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DX 156810 LONDON BRIDGE 6 , </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 47 Ridgeway Views   </x:t>
+    <x:t>Katarzyna Maria Szczerba and Pierre Mathieu Blacque-Florentin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flat 166 41  Millharbour     London     E14 9ND</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  17B  Church Rise      London     SE23 2UD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£700,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emin Read</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 Balham Hill, London, SW12 9DX</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 17B Church Rise </x:t>
   </x:si>
   <x:si>
     <x:t>Individuals</x:t>
   </x:si>
   <x:si>
-    <x:t>SJ957962C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1799</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Plot 53  Ridgeway Views           </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£532,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Plot 53 Ridgeway Views </x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rohan Bomle and Kashmira Naresh Dawal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flat 22   Taro Apartments  Henry Strong Road   Harrow     HA1 4BF</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 427 Eastman Village               </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£468,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 October 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winckworth Sherwood LLP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DX 156810 , LONDON BRIDGE 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 427 Eastman Village   </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rohan Bomle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SX247433B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vament Chan and Ching Yee Ng</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flat 63   Taro Apartments  Henry Strong Road   Harrow     HA1 4BF</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 482 Eastman Village               </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£500,115.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 March 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winckworth sherwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DX156810 London bridge 6 , </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 482 Eastman Village   </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vament Chan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NJ855536A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vizion Homes Ltd (Prassana Krishnan)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 7  Cleopatra Close     Stanmore     HA7 4PR</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 82 Ridgeway Views               </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£542,500.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 May 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winkworth Sherwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156810 , London Bridge 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 82 Ridgeway Views   </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NY145004B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexander Syal</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 3  Osborn Gardens  Mill Hlll   London     NW7 1DY</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Plot 96  Ridgeway Views           </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£681,995.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 September 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DX 156810 , London Bridge 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Plot 96 Ridgeway Views </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PW889479D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT896</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amir Ghani Properties Limited (Amir Ghani Properties Ltd)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 478 Eastman Village             </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 478 Eastman Village               </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£350,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 February 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 478 Eastman Village   </x:t>
-  </x:si>
-  <x:si>
-    <x:t>JJ364846C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1744</x:t>
+    <x:t>Katarzyna Maria Szczerba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SN 352872</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -667,7 +493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AD10"/>
+  <x:dimension ref="A1:AD2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -787,327 +613,23 @@
       <x:c r="L2" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="R2" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="R2" s="0" t="s">
+      <x:c r="T2" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="S2" s="0" t="s">
+      <x:c r="V2" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="T2" s="0" t="s">
+      <x:c r="AC2" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="V2" s="0" t="s">
+      <x:c r="AD2" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AD2" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:30">
-      <x:c r="A3" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="S3" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="T3" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AD3" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="S4" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="T4" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V4" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AD4" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:30">
-      <x:c r="A5" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="S5" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="T5" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="V5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC5" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AD5" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:30">
-      <x:c r="A6" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R6" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="S6" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="T6" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V6" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="AC6" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="AD6" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:30">
-      <x:c r="A7" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="S7" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="T7" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="V7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC7" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="AD7" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:30">
-      <x:c r="A8" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="L8" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="M8" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="N8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="S8" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="T8" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="V8" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="AC8" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="AD8" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:30">
-      <x:c r="A9" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:30">
-      <x:c r="A10" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SDLT Running Code/Taylor Bot/ProcessingExcel.xlsx
+++ b/SDLT Running Code/Taylor Bot/ProcessingExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Insight Ref</x:t>
   </x:si>
@@ -106,43 +106,109 @@
     <x:t>Primary Purchaser NIN</x:t>
   </x:si>
   <x:si>
-    <x:t>MRT1723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Purchase TL</x:t>
+    <x:t>NNT1028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Build Purchase</x:t>
   </x:si>
   <x:si>
     <x:t>False</x:t>
   </x:si>
   <x:si>
-    <x:t>Katarzyna Maria Szczerba and Pierre Mathieu Blacque-Florentin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flat 166 41  Millharbour     London     E14 9ND</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  17B  Church Rise      London     SE23 2UD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>£700,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emin Read</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 Balham Hill, London, SW12 9DX</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 17B Church Rise </x:t>
+    <x:t>Beenish Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham             </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham               </x:t>
+  </x:si>
+  <x:si>
+    <x:t>£187,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 September 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 July 2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Howard Kennedy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 London Bridge, SE1 9BG</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham   </x:t>
   </x:si>
   <x:si>
     <x:t>Individuals</x:t>
   </x:si>
   <x:si>
-    <x:t>Katarzyna Maria Szczerba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SN 352872</x:t>
+    <x:t>SC809688A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NBT1872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marius Catalin Voica and Maria Magdalena Voica</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Plot 274  Wintringham Park, St. Neots          </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Plot 274  Wintringham Park, St. Neots           </x:t>
+  </x:si>
+  <x:si>
+    <x:t>£259,950.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 July 2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birketts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kingfisher House, 1 Gilders Way, Norwich, Norfolk, NR3 1UB</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Plot 274 Wintringham Park, St. Neots </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marius Catalin Voica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SS438175D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NNT1227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silje Merete Sathren Gronning</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Flat 50, 8 Newton Street, London             </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Plot 200  Acton Gardens            </x:t>
+  </x:si>
+  <x:si>
+    <x:t>£460,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 July 2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Countryside Properties (UK) Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DX 124280 , BRENTWOOD 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Plot 200 Acton Gardens  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SY217118C</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,7 +559,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AD2"/>
+  <x:dimension ref="A1:AD4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -613,23 +679,123 @@
       <x:c r="L2" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="R2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="S2" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="T2" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="V2" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="AC2" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="AD2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:30">
+      <x:c r="A3" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V3" s="0" t="s">
         <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC3" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="AD3" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:30">
+      <x:c r="A4" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="V4" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AD4" s="0" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SDLT Running Code/Taylor Bot/ProcessingExcel.xlsx
+++ b/SDLT Running Code/Taylor Bot/ProcessingExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <x:si>
     <x:t>Insight Ref</x:t>
   </x:si>
@@ -106,31 +106,61 @@
     <x:t>Primary Purchaser NIN</x:t>
   </x:si>
   <x:si>
-    <x:t>NNT1028</x:t>
+    <x:t>MRT1835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Purchase TL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antonia Jane Allen and Mark Eamonn Reginald Flynn</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 23  Woodside     Leigh-on-Sea  Essex   SS9 4QX</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  9  Ennismore Gardens      Southend-on-Sea   Essex  SS2 5RA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>£355,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paul Robinsons Solicitors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>470-474 London Road, Essex, SS0 9LD</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Andrew McClintock </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Individuals</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antonia Jane Allen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JE282389B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NBT1893</x:t>
   </x:si>
   <x:si>
     <x:t>New Build Purchase</x:t>
   </x:si>
   <x:si>
-    <x:t>False</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beenish Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham             </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham               </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£187,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 September 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 July 2023</x:t>
+    <x:t>Fulvio Zaccagna and Maria Lyasheva</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 4  Grey Way     Cambridge  Cambridgeshire   CB5 8XT</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Plot 9 Marleigh             </x:t>
+  </x:si>
+  <x:si>
+    <x:t>£599,950.00</x:t>
   </x:si>
   <x:si>
     <x:t>Howard Kennedy</x:t>
@@ -139,76 +169,13 @@
     <x:t>1 London Bridge, SE1 9BG</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham   </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Individuals</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SC809688A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NBT1872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marius Catalin Voica and Maria Magdalena Voica</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Plot 274  Wintringham Park, St. Neots          </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Plot 274  Wintringham Park, St. Neots           </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£259,950.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 July 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Birketts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kingfisher House, 1 Gilders Way, Norwich, Norfolk, NR3 1UB</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Plot 274 Wintringham Park, St. Neots </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marius Catalin Voica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SS438175D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NNT1227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silje Merete Sathren Gronning</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Flat 50, 8 Newton Street, London             </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">  Plot 200  Acton Gardens            </x:t>
-  </x:si>
-  <x:si>
-    <x:t>£460,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 July 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Countryside Properties (UK) Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DX 124280 , BRENTWOOD 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Plot 200 Acton Gardens  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SY217118C</x:t>
+    <x:t xml:space="preserve"> Plot 9 Marleigh  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fulvio Zaccagna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ST077161B</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -559,7 +526,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AD4"/>
+  <x:dimension ref="A1:AD3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -679,37 +646,31 @@
       <x:c r="L2" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="R2" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="R2" s="0" t="s">
+      <x:c r="T2" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="S2" s="0" t="s">
+      <x:c r="V2" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="T2" s="0" t="s">
+      <x:c r="AC2" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="V2" s="0" t="s">
+      <x:c r="AD2" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AD2" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:30">
       <x:c r="A3" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>32</x:v>
@@ -726,76 +687,23 @@
       <x:c r="L3" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="R3" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
+      <x:c r="S3" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="S3" s="0" t="s">
+      <x:c r="T3" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="T3" s="0" t="s">
+      <x:c r="V3" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AC3" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC3" s="0" t="s">
+      <x:c r="AD3" s="0" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="AD3" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:30">
-      <x:c r="A4" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="S4" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="T4" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="V4" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC4" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD4" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
